--- a/response_1_1.xlsx
+++ b/response_1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephencropper/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephencropper/Downloads/last_millennium_ecs_constraint-1.0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F54924AA-9F9A-6E44-809E-46C048CC9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4039E31-DCE6-694A-B25F-DA7C894EF56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19500" windowHeight="17020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revised Cropper 23 (cox)" sheetId="2" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,32 +213,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -287,31 +299,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -530,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A25" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,16 +676,16 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4">
-        <v>9.6161941094298806E-2</v>
+      <c r="B13" s="21">
+        <v>9.7021844368051294E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
-        <v>1.91641297478892E-2</v>
+      <c r="B14" s="21">
+        <v>2.0184056441559899E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -689,7 +702,7 @@
       </c>
       <c r="B16" s="7">
         <f>B9 + B19*(B13-B9)</f>
-        <v>0.10628903219218538</v>
+        <v>9.981271674086023E-2</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
@@ -702,7 +715,7 @@
       </c>
       <c r="B17" s="8">
         <f>(1-B19)*B10</f>
-        <v>7.1266648722099982E-3</v>
+        <v>1.992040144321043E-3</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>24</v>
@@ -714,8 +727,8 @@
         <v>25</v>
       </c>
       <c r="B19" s="9">
-        <f>B11/(B11+B21)</f>
-        <v>0.83422870073344124</v>
+        <f>B11^2/(B11^2+B21^2)</f>
+        <v>0.95366372786758535</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +737,7 @@
       </c>
       <c r="B20" s="4">
         <f>B14</f>
-        <v>1.91641297478892E-2</v>
+        <v>2.0184056441559899E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -733,7 +746,7 @@
       </c>
       <c r="B21" s="4">
         <f>B20^2</f>
-        <v>3.6726386899393177E-4</v>
+        <v>4.0739613443607563E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -743,7 +756,7 @@
       </c>
       <c r="B23" s="7">
         <f>B26+B31*B19*(B13-B9)</f>
-        <v>2.5611499593259026</v>
+        <v>2.4694475473716269</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="4" t="s">
@@ -756,7 +769,7 @@
       </c>
       <c r="B24" s="7">
         <f>(1-(B4^2/(1+(B29)^-1)))*B28</f>
-        <v>0.65802090901555899</v>
+        <v>0.6635210378636911</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="4" t="s">
@@ -769,7 +782,7 @@
       </c>
       <c r="B25" s="10">
         <f>SQRT(B24)</f>
-        <v>0.8111848796763651</v>
+        <v>0.81456800689917297</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -804,7 +817,7 @@
       </c>
       <c r="B29" s="4">
         <f>B11/B21</f>
-        <v>5.0324073251788253</v>
+        <v>4.5366689282825838</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>37</v>
@@ -816,7 +829,7 @@
       </c>
       <c r="B30" s="4">
         <f>B10/B20</f>
-        <v>2.2433027716246472</v>
+        <v>2.1299457571221345</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -837,14 +850,14 @@
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f>B23+($I$6*B25)</f>
-        <v>3.3351541800423017</v>
+        <v>3.2466798296745765</v>
       </c>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f>B23-($I$6*B25)</f>
-        <v>1.7871457386095035</v>
+        <v>1.6922152650686775</v>
       </c>
       <c r="C35" s="10"/>
     </row>
@@ -854,7 +867,7 @@
       </c>
       <c r="B36" s="10">
         <f>B34-B35</f>
-        <v>1.5480084414327981</v>
+        <v>1.554464564605899</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -895,7 +908,7 @@
       </c>
       <c r="B41" s="13">
         <f>1-(B36/B40)</f>
-        <v>0.17515534111713871</v>
+        <v>0.17171524442652042</v>
       </c>
       <c r="C41" s="14"/>
     </row>
@@ -903,13 +916,13 @@
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15">
         <f>AVERAGE(B34:B35)</f>
-        <v>2.5611499593259026</v>
+        <v>2.4694475473716269</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15">
         <f>B43-B35</f>
-        <v>0.77400422071639907</v>
+        <v>0.77723228230294938</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1880,13 +1893,13 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="184" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1897,12 +1910,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1952,7 +1965,7 @@
         <v>0.95416500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1991,7 +2004,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2001,102 +2014,102 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="16">
-        <v>0.148731971268873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.14686811787714399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="16">
-        <v>3.4638026746437803E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.4300603365076801E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="7">
         <f>B9 + B19*(B13-B9)</f>
-        <v>0.16782257290050576</v>
+        <v>0.15715000296105236</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="8">
         <f>(1-B19)*B10</f>
-        <v>1.6010680024420663E-2</v>
+        <v>8.3702813335686417E-3</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="9">
-        <f>B11/(B11+B21)</f>
-        <v>0.69064337675068688</v>
+        <f>B11^2/(B11^2+B21^2)</f>
+        <v>0.83827033173793952</v>
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="4">
         <f>B14</f>
-        <v>3.4638026746437803E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.4300603365076801E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="4">
         <f>B20^2</f>
-        <v>1.1997928968869407E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.1765313912083179E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="7">
         <f>B26+B31*B19*(B13-B9)</f>
-        <v>2.8060710104253417</v>
+        <v>2.6866979635769552</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="7">
         <f>(1-(B4^2/(1+(B29)^-1)))*B28</f>
-        <v>0.73571835721101464</v>
+        <v>0.73432188366876905</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="4" t="s">
@@ -2109,7 +2122,7 @@
       </c>
       <c r="B25" s="10">
         <f>SQRT(B24)</f>
-        <v>0.85774026209046217</v>
+        <v>0.85692583323690796</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -2139,28 +2152,28 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4">
         <f>B11/B21</f>
-        <v>2.2325152424297419</v>
+        <v>2.2766548772728519</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="4">
         <f>B10/B20</f>
-        <v>1.4941603804243178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.5088587996472207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2170,57 +2183,57 @@
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f>B23+($I$6*B25)</f>
-        <v>3.6244967476028878</v>
+        <v>3.5043466012474496</v>
       </c>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f>B23-($I$6*B25)</f>
-        <v>1.9876452732477958</v>
+        <v>1.8690493259064609</v>
       </c>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="10">
         <f>B34-B35</f>
-        <v>1.6368514743550919</v>
+        <v>1.6352972753409887</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f>B26+($I$6*B27)</f>
         <v>4.2211413985893316</v>
       </c>
       <c r="C38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f>B26-($I$6*B27)</f>
         <v>2.3444141569662085</v>
       </c>
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -2230,33 +2243,33 @@
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="13">
         <f>1-(B36/B40)</f>
-        <v>0.12781599901569607</v>
+        <v>0.12864414227468091</v>
       </c>
       <c r="C41" s="13"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="15">
         <f>B23</f>
-        <v>2.8060710104253417</v>
+        <v>2.6866979635769552</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="15">
         <f>B43-B35</f>
-        <v>0.81842573717754585</v>
+        <v>0.81764863767049434</v>
       </c>
       <c r="C44" s="19"/>
     </row>
